--- a/resultados_avaliacao.xlsx
+++ b/resultados_avaliacao.xlsx
@@ -1695,17 +1695,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Ótimo</t>
+          <t>Bom</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0 &lt;= P/VPA &lt;= 0.8</t>
+          <t>0.8 &lt; P/VPA &lt;= 1.2</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>O P/VPA está muito baixo, sugerindo que a ação está fortemente subvalorizada em relação ao patrimônio líquido por ação. Essa faixa indica oportunidades de compra, comum em empresas com ativos sólidos, mas preço de mercado deprimido devido a ciclos econômicos ou baixa percepção de mercado.</t>
+          <t>O P/VPA está em uma faixa equilibrada, sugerindo que o preço da ação está alinhado com o valor patrimonial por ação. Essa faixa é comum em empresas estáveis com patrimônio sólido e rentabilidade moderada, refletindo confiança do mercado sem prêmios excessivos.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1728,17 +1728,17 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Risco de ativos obsoletos ou baixa rentabilidade patrimonial. Pode haver desafios setoriais ou problemas operacionais que justifiquem o desconto no preço.</t>
+          <t>Risco de estagnação no preço se a rentabilidade patrimonial não melhorar. Pode haver dependência de fatores macroeconômicos que afetem o valor de mercado.</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Analise evaluate_p_l para comparação de lucros, evaluate_roe para rentabilidade e evaluate_debt_to_assets para alavancagem.</t>
+          <t>Compare com evaluate_p_l para valuation de lucros, evaluate_margem_liquida para eficiência e evaluate_peg_ratio para crescimento.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Considere investir, mas verifique a qualidade dos ativos e a rentabilidade patrimonial. Avalie se a subvalorização é temporária ou estrutural.</t>
+          <t>Avalie o histórico de rentabilidade e estratégias de crescimento antes de investir. Pode ser uma boa opção para investidores que buscam estabilidade.</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1748,24 +1748,24 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>avaliar (vpa=0.8, preco_acao=10)</t>
+          <t>avaliar (vpa=0.85, preco_acao=10)</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Bom</t>
+          <t>Ótimo</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0.9 &lt;= P/VPA &lt;= 1.2</t>
+          <t>0 &lt;= P/VPA &lt;= 0.8</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>O P/VPA está em uma faixa equilibrada, sugerindo que o preço da ação está alinhado com o valor patrimonial por ação. Essa faixa é comum em empresas estáveis com patrimônio sólido e rentabilidade moderada, refletindo confiança do mercado sem prêmios excessivos.</t>
+          <t>O P/VPA está muito baixo, sugerindo que a ação está fortemente subvalorizada em relação ao patrimônio líquido por ação. Essa faixa indica oportunidades de compra, comum em empresas com ativos sólidos, mas preço de mercado deprimido devido a ciclos econômicos ou baixa percepção de mercado.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1788,17 +1788,17 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Risco de estagnação no preço se a rentabilidade patrimonial não melhorar. Pode haver dependência de fatores macroeconômicos que afetem o valor de mercado.</t>
+          <t>Risco de ativos obsoletos ou baixa rentabilidade patrimonial. Pode haver desafios setoriais ou problemas operacionais que justifiquem o desconto no preço.</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Compare com evaluate_p_l para valuation de lucros, evaluate_margem_liquida para eficiência e evaluate_peg_ratio para crescimento.</t>
+          <t>Analise evaluate_p_l para comparação de lucros, evaluate_roe para rentabilidade e evaluate_debt_to_assets para alavancagem.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Avalie o histórico de rentabilidade e estratégias de crescimento antes de investir. Pode ser uma boa opção para investidores que buscam estabilidade.</t>
+          <t>Considere investir, mas verifique a qualidade dos ativos e a rentabilidade patrimonial. Avalie se a subvalorização é temporária ou estrutural.</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1808,7 +1808,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>avaliar (vpa=0.9, preco_acao=10)</t>
+          <t>avaliar (vpa=0.8, preco_acao=10)</t>
         </is>
       </c>
     </row>
@@ -1820,7 +1820,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1.3 &lt;= P/VPA &lt;= 1.8</t>
+          <t>1.2 &lt; P/VPA &lt;= 1.8</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1880,7 +1880,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1.9 &lt;= P/VPA &lt;= 2.5</t>
+          <t>1.8 &lt; P/VPA &lt;= 2.5</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
